--- a/src/Tests/Tests.RealWorldScenario.Net.verified.xlsx
+++ b/src/Tests/Tests.RealWorldScenario.Net.verified.xlsx
@@ -39,9 +39,6 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>1001</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sarah Connor</x:t>
   </x:si>
   <x:si>
@@ -54,27 +51,18 @@
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
-    <x:t>1002</x:t>
-  </x:si>
-  <x:si>
     <x:t>John Matrix</x:t>
   </x:si>
   <x:si>
     <x:t>j.matrix@techcorp.com</x:t>
   </x:si>
   <x:si>
-    <x:t>1003</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ellen Ripley</x:t>
   </x:si>
   <x:si>
     <x:t>e.ripley@techcorp.com</x:t>
   </x:si>
   <x:si>
-    <x:t>1004</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dutch Schaefer</x:t>
   </x:si>
   <x:si>
@@ -84,9 +72,6 @@
     <x:t>Contract</x:t>
   </x:si>
   <x:si>
-    <x:t>1005</x:t>
-  </x:si>
-  <x:si>
     <x:t>Kyle Reese</x:t>
   </x:si>
   <x:si>
@@ -97,9 +82,6 @@
   </x:si>
   <x:si>
     <x:t>Part Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1006</x:t>
   </x:si>
   <x:si>
     <x:t>Roy Batty</x:t>
@@ -664,14 +646,14 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="2">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="3">
         <x:v>43174</x:v>
@@ -680,21 +662,21 @@
         <x:v>125000</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="6" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G2" s="6" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="7" t="s">
+      <x:c r="A3" s="7">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="B3" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="8">
         <x:v>44034</x:v>
@@ -703,21 +685,21 @@
         <x:v>95000</x:v>
       </x:c>
       <x:c r="F3" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G3" s="6" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G3" s="6" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
-        <x:v>15</x:v>
+      <x:c r="A4" s="2">
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>43777</x:v>
@@ -726,21 +708,21 @@
         <x:v>110000</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G4" s="6" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G4" s="6" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="7" t="s">
-        <x:v>18</x:v>
+      <x:c r="A5" s="7">
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="8">
         <x:v>44241</x:v>
@@ -749,21 +731,21 @@
         <x:v>75000</x:v>
       </x:c>
       <x:c r="F5" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G5" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
-        <x:v>22</x:v>
+      <x:c r="A6" s="2">
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="3">
         <x:v>44742</x:v>
@@ -772,21 +754,21 @@
         <x:v>45000</x:v>
       </x:c>
       <x:c r="F6" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G6" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="7" t="s">
-        <x:v>27</x:v>
+      <x:c r="A7" s="7">
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="8">
         <x:v>43070</x:v>
@@ -795,10 +777,10 @@
         <x:v>140000</x:v>
       </x:c>
       <x:c r="F7" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/Tests/Tests.RealWorldScenario.Net.verified.xlsx
+++ b/src/Tests/Tests.RealWorldScenario.Net.verified.xlsx
@@ -259,55 +259,55 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>

--- a/src/Tests/Tests.RealWorldScenario.Net.verified.xlsx
+++ b/src/Tests/Tests.RealWorldScenario.Net.verified.xlsx
@@ -259,55 +259,55 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
